--- a/data/Raspberries Production in Chile.xlsx
+++ b/data/Raspberries Production in Chile.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -727,7 +727,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B2 A4:B8 A3 A10:B30 A9" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B2 A4:B5 A3 A10:B30 A9 A7:B8 A6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>